--- a/view/viewList_protocolCore.xlsx
+++ b/view/viewList_protocolCore.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\view\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB7370D-0A84-47B5-B0C5-FE922CB1CE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="24480" yWindow="948" windowWidth="21600" windowHeight="11292" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Viste" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle-viste utilizzate" sheetId="2" r:id="rId2"/>
+    <sheet name="Query Sql-Oracle" sheetId="3" r:id="rId3"/>
+    <sheet name="Campi" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,10 +27,77 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+  <si>
+    <t>Codice Vista</t>
+  </si>
+  <si>
+    <t>Descrizione</t>
+  </si>
+  <si>
+    <t>Attivo</t>
+  </si>
+  <si>
+    <t>Abbreviazione</t>
+  </si>
+  <si>
+    <t>Cod.Attività</t>
+  </si>
+  <si>
+    <t>Modulo</t>
+  </si>
+  <si>
+    <t>Cod Vista</t>
+  </si>
+  <si>
+    <t>Tabelle/Viste utilizzate</t>
+  </si>
+  <si>
+    <t>YVPROTOCOL</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Cod. Vista</t>
+  </si>
+  <si>
+    <t>Query Sql</t>
+  </si>
+  <si>
+    <t>Query Oracle</t>
+  </si>
+  <si>
+    <t>YVSCRFLDTYP</t>
+  </si>
+  <si>
+    <t>YVSCRFLD</t>
+  </si>
+  <si>
+    <t>YVLOCMEN</t>
+  </si>
+  <si>
+    <t>YVFLDACTPAR</t>
+  </si>
+  <si>
+    <t>YVWINBTN</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -37,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,15 +121,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,10 +460,155 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87960965-DC7A-452D-9138-227F9365F5E9}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21BE5DC-AF7D-4000-8F39-BB6DC79F8885}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="74" customWidth="1"/>
+    <col min="3" max="3" width="80.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEBD159-3C3D-4EE7-A9C6-2B247405BF4C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/view/viewList_protocolCore.xlsx
+++ b/view/viewList_protocolCore.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\view\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB7370D-0A84-47B5-B0C5-FE922CB1CE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3205067-DB87-4BBA-AF61-0A4362AFB05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24480" yWindow="948" windowWidth="21600" windowHeight="11292" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Viste" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle-viste utilizzate" sheetId="2" r:id="rId2"/>
     <sheet name="Query Sql-Oracle" sheetId="3" r:id="rId3"/>
     <sheet name="Campi" sheetId="4" r:id="rId4"/>
+    <sheet name="Chiavi ordinamento" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
   <si>
     <t>Codice Vista</t>
   </si>
@@ -51,9 +52,6 @@
     <t>Cod Vista</t>
   </si>
   <si>
-    <t>Tabelle/Viste utilizzate</t>
-  </si>
-  <si>
     <t>YVPROTOCOL</t>
   </si>
   <si>
@@ -82,6 +80,84 @@
   </si>
   <si>
     <t>YVWINBTN</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>YAX3C</t>
+  </si>
+  <si>
+    <t>YVWB</t>
+  </si>
+  <si>
+    <t>YVSF</t>
+  </si>
+  <si>
+    <t>Diz. Bottoni finestra AX3M</t>
+  </si>
+  <si>
+    <t>Supervisore</t>
+  </si>
+  <si>
+    <t>YVSFT</t>
+  </si>
+  <si>
+    <t>AX3M - Tipi campi videata</t>
+  </si>
+  <si>
+    <t>AX3M - Lettura campi videata</t>
+  </si>
+  <si>
+    <t>YVPR</t>
+  </si>
+  <si>
+    <t>YAX3M-Main query get protocol</t>
+  </si>
+  <si>
+    <t>YVLC</t>
+  </si>
+  <si>
+    <t>AX3M - Get Menu locali</t>
+  </si>
+  <si>
+    <t>YVFAP</t>
+  </si>
+  <si>
+    <t>AX3M - Read azioni campo e par</t>
+  </si>
+  <si>
+    <t>Tabelle/Viste utilizzate (Codice)</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>ATB</t>
+  </si>
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>ATEXTE</t>
+  </si>
+  <si>
+    <t>AWINBOUT</t>
+  </si>
+  <si>
+    <t>Cod.Vista</t>
+  </si>
+  <si>
+    <t>Menù</t>
+  </si>
+  <si>
+    <t>Lungh.</t>
+  </si>
+  <si>
+    <t>Cod.Att</t>
+  </si>
+  <si>
+    <t>Dim</t>
   </si>
 </sst>
 </file>
@@ -113,7 +189,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -158,14 +234,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -181,6 +356,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -463,9 +680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -473,56 +688,147 @@
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="E3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
+      <c r="B8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -532,32 +838,137 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87960965-DC7A-452D-9138-227F9365F5E9}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
+      <c r="C11" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -581,21 +992,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:3" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="7"/>
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -604,10 +1015,55 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEBD159-3C3D-4EE7-A9C6-2B247405BF4C}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="39.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AFA4BE-C9E4-471A-BD9B-E4431B72582D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
